--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/PCA/PCA.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/PCA/PCA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\PCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD5C169-1835-492B-B3D8-F7E83FCD54E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35EEE93-C908-4E83-AA6A-1D2F06D4A45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9C1FE723-DE88-4DB3-9F72-73D6093717C1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9C1FE723-DE88-4DB3-9F72-73D6093717C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -1293,10 +1293,10 @@
   <dimension ref="A1:R117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J124" sqref="J124"/>
+      <selection pane="bottomRight" activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7870,11 +7870,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R117" xr:uid="{5D15F5A6-D6F7-4479-B352-1468DB6DA428}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R117">
-      <sortCondition ref="O1:O117"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/PCA/PCA.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/PCA/PCA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\PCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\PCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35EEE93-C908-4E83-AA6A-1D2F06D4A45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9C1FE723-DE88-4DB3-9F72-73D6093717C1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$1:$R$117</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="274">
   <si>
     <t>part</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -150,15 +149,6 @@
   </si>
   <si>
     <t>m-AG</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>7.49</t>
   </si>
   <si>
     <t>m-7</t>
@@ -877,7 +867,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -953,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -974,6 +964,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1289,14 +1282,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D15F5A6-D6F7-4479-B352-1468DB6DA428}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N36" sqref="N36"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3:R117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1375,7 +1368,7 @@
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
@@ -1431,7 +1424,7 @@
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B3" s="2">
         <v>6</v>
@@ -1475,31 +1468,31 @@
       <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>39</v>
+      <c r="P3" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="R3" s="8">
+        <v>7.49</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B4" s="2">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F4" s="5">
         <v>3.0946320354901857</v>
@@ -1543,19 +1536,19 @@
     </row>
     <row r="5" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B5" s="2">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="5">
         <v>2.6851665142309455</v>
@@ -1599,19 +1592,19 @@
     </row>
     <row r="6" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B6" s="2">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F6" s="5">
         <v>54.032610689416728</v>
@@ -1655,19 +1648,19 @@
     </row>
     <row r="7" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B7" s="2">
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F7" s="5">
         <v>109.39412280874174</v>
@@ -1711,19 +1704,19 @@
     </row>
     <row r="8" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B8" s="2">
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F8" s="5">
         <v>56.788367438408585</v>
@@ -1767,19 +1760,19 @@
     </row>
     <row r="9" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B9" s="2">
         <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F9" s="5">
         <v>0.29943771560517651</v>
@@ -1829,13 +1822,13 @@
         <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F10" s="5">
         <v>3.7601008332122703</v>
@@ -1885,13 +1878,13 @@
         <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F11" s="5">
         <v>3.4287300201655735</v>
@@ -1941,13 +1934,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F12" s="5">
         <v>5.0417510979649105</v>
@@ -1997,13 +1990,13 @@
         <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F13" s="5">
         <v>13.429465099180405</v>
@@ -2053,13 +2046,13 @@
         <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F14" s="5">
         <v>3.4749620553085618</v>
@@ -2109,13 +2102,13 @@
         <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F15" s="5">
         <v>3.4286876887862818</v>
@@ -2165,13 +2158,13 @@
         <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F16" s="5">
         <v>3.4108055153000638</v>
@@ -2221,13 +2214,13 @@
         <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F17" s="5">
         <v>22.368517034686736</v>
@@ -2277,13 +2270,13 @@
         <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F18" s="5">
         <v>8.1762441124706609</v>
@@ -2333,13 +2326,13 @@
         <v>98</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F19" s="5">
         <v>16.477282259746197</v>
@@ -2389,13 +2382,13 @@
         <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F20" s="5">
         <v>5.0243794580498307</v>
@@ -2445,13 +2438,13 @@
         <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F21" s="5">
         <v>5.0959031342300776</v>
@@ -2501,13 +2494,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F22" s="5">
         <v>11.688295955201415</v>
@@ -2557,13 +2550,13 @@
         <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F23" s="5">
         <v>14.282078097709434</v>
@@ -2613,13 +2606,13 @@
         <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F24" s="5">
         <v>13.98344367953413</v>
@@ -2669,13 +2662,13 @@
         <v>36</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F25" s="5">
         <v>18.879893656028173</v>
@@ -2725,13 +2718,13 @@
         <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F26" s="5">
         <v>22.616564460505099</v>
@@ -2781,13 +2774,13 @@
         <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F27" s="5">
         <v>22.506582124794861</v>
@@ -2837,13 +2830,13 @@
         <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F28" s="5">
         <v>24.289464162734614</v>
@@ -2893,13 +2886,13 @@
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F29" s="5">
         <v>12.673158509287095</v>
@@ -2949,13 +2942,13 @@
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F30" s="5">
         <v>14.682472176249231</v>
@@ -3005,13 +2998,13 @@
         <v>82</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F31" s="5">
         <v>5.9244635060084629</v>
@@ -3061,13 +3054,13 @@
         <v>83</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F32" s="5">
         <v>5.7596811984278915</v>
@@ -3117,13 +3110,13 @@
         <v>94</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F33" s="5">
         <v>15.272031664038799</v>
@@ -3173,13 +3166,13 @@
         <v>95</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F34" s="5">
         <v>17.569921912711081</v>
@@ -3229,13 +3222,13 @@
         <v>14</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F35" s="5">
         <v>5.0683637838044096</v>
@@ -3285,13 +3278,13 @@
         <v>15</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F36" s="5">
         <v>24.443521037428351</v>
@@ -3341,13 +3334,13 @@
         <v>25</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F37" s="5">
         <v>15.61653736565582</v>
@@ -3397,13 +3390,13 @@
         <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F38" s="5">
         <v>5.9796482974172678</v>
@@ -3453,13 +3446,13 @@
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F39" s="5">
         <v>7.8532647185529711</v>
@@ -3509,13 +3502,13 @@
         <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F40" s="5">
         <v>16.600520422989092</v>
@@ -3565,13 +3558,13 @@
         <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F41" s="5">
         <v>16.512620742017532</v>
@@ -3621,13 +3614,13 @@
         <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F42" s="5">
         <v>16.240236406372077</v>
@@ -3677,13 +3670,13 @@
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F43" s="5">
         <v>16.82353021310082</v>
@@ -3733,13 +3726,13 @@
         <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F44" s="5">
         <v>16.715501473161467</v>
@@ -3783,7 +3776,7 @@
     </row>
     <row r="45" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B45" s="2">
         <v>2</v>
@@ -3839,19 +3832,19 @@
     </row>
     <row r="46" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B46" s="2">
         <v>27</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F46" s="5">
         <v>13.723071784809456</v>
@@ -3901,13 +3894,13 @@
         <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F47" s="5">
         <v>16.732733200819901</v>
@@ -3957,13 +3950,13 @@
         <v>19</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F48" s="5">
         <v>15.722793965022429</v>
@@ -4013,13 +4006,13 @@
         <v>32</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F49" s="5">
         <v>14.347146557169186</v>
@@ -4069,13 +4062,13 @@
         <v>33</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F50" s="5">
         <v>13.572939879059074</v>
@@ -4125,13 +4118,13 @@
         <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F51" s="5">
         <v>33.343575812000751</v>
@@ -4181,13 +4174,13 @@
         <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F52" s="5">
         <v>30.600585073357273</v>
@@ -4237,13 +4230,13 @@
         <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F53" s="5">
         <v>29.999457202715096</v>
@@ -4293,13 +4286,13 @@
         <v>70</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F54" s="5">
         <v>17.695677917456258</v>
@@ -4349,13 +4342,13 @@
         <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F55" s="5">
         <v>13.172326853661104</v>
@@ -4405,13 +4398,13 @@
         <v>87</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F56" s="5">
         <v>3.7424485955157514</v>
@@ -4455,7 +4448,7 @@
     </row>
     <row r="57" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B57" s="2">
         <v>4</v>
@@ -4511,19 +4504,19 @@
     </row>
     <row r="58" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B58" s="2">
         <v>13</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F58" s="5">
         <v>10.854114556331425</v>
@@ -4567,19 +4560,19 @@
     </row>
     <row r="59" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B59" s="2">
         <v>21</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F59" s="5">
         <v>10.142248326359997</v>
@@ -4629,13 +4622,13 @@
         <v>2</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F60" s="5">
         <v>16.833208611942261</v>
@@ -4685,13 +4678,13 @@
         <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F61" s="5">
         <v>18.456229850364625</v>
@@ -4741,13 +4734,13 @@
         <v>23</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F62" s="5">
         <v>12.57581881423893</v>
@@ -4797,13 +4790,13 @@
         <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F63" s="5">
         <v>11.168989827978944</v>
@@ -4853,13 +4846,13 @@
         <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F64" s="5">
         <v>10.572253505463696</v>
@@ -4903,7 +4896,7 @@
     </row>
     <row r="65" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B65" s="2">
         <v>1</v>
@@ -4959,19 +4952,19 @@
     </row>
     <row r="66" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B66" s="2">
         <v>10</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F66" s="5">
         <v>12.956787301285205</v>
@@ -5015,19 +5008,19 @@
     </row>
     <row r="67" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B67" s="2">
         <v>11</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F67" s="5">
         <v>12.871581756244076</v>
@@ -5071,19 +5064,19 @@
     </row>
     <row r="68" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B68" s="2">
         <v>22</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F68" s="5">
         <v>30.814647376433875</v>
@@ -5127,19 +5120,19 @@
     </row>
     <row r="69" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B69" s="2">
         <v>23</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F69" s="5">
         <v>14.596560879431459</v>
@@ -5183,19 +5176,19 @@
     </row>
     <row r="70" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B70" s="2">
         <v>26</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F70" s="5">
         <v>36.391507073852054</v>
@@ -5245,13 +5238,13 @@
         <v>30</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F71" s="5">
         <v>22.004890850017958</v>
@@ -5301,13 +5294,13 @@
         <v>31</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F72" s="5">
         <v>22.26730195889127</v>
@@ -5357,13 +5350,13 @@
         <v>76</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F73" s="5">
         <v>74.483632571498148</v>
@@ -5413,13 +5406,13 @@
         <v>77</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F74" s="5">
         <v>73.426960457748123</v>
@@ -5463,19 +5456,19 @@
     </row>
     <row r="75" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B75" s="2">
         <v>15</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F75" s="5">
         <v>16.56633026357671</v>
@@ -5525,13 +5518,13 @@
         <v>6</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F76" s="5">
         <v>28.246586717975021</v>
@@ -5581,13 +5574,13 @@
         <v>9</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F77" s="5">
         <v>26.797733511529536</v>
@@ -5637,13 +5630,13 @@
         <v>10</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F78" s="5">
         <v>26.905332500817366</v>
@@ -5693,13 +5686,13 @@
         <v>24</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F79" s="5">
         <v>23.180389593830384</v>
@@ -5749,13 +5742,13 @@
         <v>66</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F80" s="5">
         <v>25.389757622973729</v>
@@ -5799,19 +5792,19 @@
     </row>
     <row r="81" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B81" s="2">
         <v>19</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F81" s="5">
         <v>23.198336950295289</v>
@@ -5861,13 +5854,13 @@
         <v>7</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" s="5">
         <v>20.49084078677922</v>
@@ -5917,13 +5910,13 @@
         <v>21</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F83" s="5">
         <v>23.301398208537748</v>
@@ -5973,13 +5966,13 @@
         <v>29</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F84" s="5">
         <v>22.448230981573985</v>
@@ -6029,13 +6022,13 @@
         <v>72</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F85" s="5">
         <v>19.766280723953965</v>
@@ -6085,13 +6078,13 @@
         <v>74</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F86" s="5">
         <v>18.883694583211721</v>
@@ -6135,19 +6128,19 @@
     </row>
     <row r="87" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B87" s="2">
         <v>16</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F87" s="5">
         <v>25.590967872537163</v>
@@ -6191,19 +6184,19 @@
     </row>
     <row r="88" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B88" s="2">
         <v>20</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F88" s="5">
         <v>57.064439953581733</v>
@@ -6253,13 +6246,13 @@
         <v>3</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F89" s="5">
         <v>21.881391672275903</v>
@@ -6309,13 +6302,13 @@
         <v>4</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F90" s="5">
         <v>22.210583513678614</v>
@@ -6365,13 +6358,13 @@
         <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F91" s="5">
         <v>44.728312532605187</v>
@@ -6415,19 +6408,19 @@
     </row>
     <row r="92" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B92" s="2">
         <v>34</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F92" s="5">
         <v>17.121961469686767</v>
@@ -6477,13 +6470,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F93" s="5">
         <v>23.305659832916099</v>
@@ -6533,13 +6526,13 @@
         <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F94" s="5">
         <v>28.4860378542283</v>
@@ -6589,13 +6582,13 @@
         <v>68</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F95" s="5">
         <v>22.957894863310166</v>
@@ -6639,19 +6632,19 @@
     </row>
     <row r="96" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B96" s="2">
         <v>17</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F96" s="5">
         <v>84.119787242934223</v>
@@ -6695,19 +6688,19 @@
     </row>
     <row r="97" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B97" s="2">
         <v>25</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F97" s="5">
         <v>84.638485956063747</v>
@@ -6757,13 +6750,13 @@
         <v>16</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F98" s="5">
         <v>23.467614250241823</v>
@@ -6813,13 +6806,13 @@
         <v>28</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F99" s="5">
         <v>23.088627951049396</v>
@@ -6863,7 +6856,7 @@
     </row>
     <row r="100" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B100" s="2">
         <v>3</v>
@@ -6919,19 +6912,19 @@
     </row>
     <row r="101" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B101" s="2">
         <v>31</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F101" s="5">
         <v>10.904976959683404</v>
@@ -6975,19 +6968,19 @@
     </row>
     <row r="102" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B102" s="2">
         <v>33</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F102" s="5">
         <v>34.450733566790362</v>
@@ -7031,19 +7024,19 @@
     </row>
     <row r="103" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B103" s="2">
         <v>18</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F103" s="5">
         <v>29.3728265277079</v>
@@ -7093,13 +7086,13 @@
         <v>17</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F104" s="5">
         <v>33.768753028881662</v>
@@ -7149,13 +7142,13 @@
         <v>37</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F105" s="5">
         <v>75.011978295763413</v>
@@ -7199,19 +7192,19 @@
     </row>
     <row r="106" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B106" s="2">
         <v>14</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F106" s="5">
         <v>36.570796834687087</v>
@@ -7261,13 +7254,13 @@
         <v>39</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F107" s="5">
         <v>84.024635034898097</v>
@@ -7317,13 +7310,13 @@
         <v>40</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F108" s="5">
         <v>79.526454297533505</v>
@@ -7373,13 +7366,13 @@
         <v>41</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F109" s="5">
         <v>80.096818927021388</v>
@@ -7429,13 +7422,13 @@
         <v>42</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F110" s="5">
         <v>83.203441781640379</v>
@@ -7485,13 +7478,13 @@
         <v>54</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F111" s="5">
         <v>3.4324777670053099</v>
@@ -7541,13 +7534,13 @@
         <v>38</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F112" s="5">
         <v>77.874434616533421</v>
@@ -7597,13 +7590,13 @@
         <v>92</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F113" s="5">
         <v>32.313573289274927</v>
@@ -7653,13 +7646,13 @@
         <v>18</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F114" s="5">
         <v>33.471898631638695</v>
@@ -7703,19 +7696,19 @@
     </row>
     <row r="115" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B115" s="2">
         <v>28</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F115" s="5">
         <v>73.542411949882791</v>
@@ -7759,19 +7752,19 @@
     </row>
     <row r="116" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B116" s="2">
         <v>7</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F116" s="5">
         <v>44.53628333660275</v>
@@ -7815,19 +7808,19 @@
     </row>
     <row r="117" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B117" s="2">
         <v>12</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F117" s="5">
         <v>67.124495783588827</v>
